--- a/xlsx/网络百科全书_intext.xlsx
+++ b/xlsx/网络百科全书_intext.xlsx
@@ -20,292 +20,292 @@
     <t>网络百科全书</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B6%B2%E7%B5%A1%E7%99%BE%E7%A7%91%E5%85%A8%E6%9B%B8</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Internet_encyclopedia</t>
+  </si>
+  <si>
+    <t>en-Internet encyclopedia</t>
+  </si>
+  <si>
+    <t>政策_政策_维基百科_网络百科全书</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%92%E8%81%94%E7%BD%91</t>
+  </si>
+  <si>
+    <t>互联网</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B6%B2%E5%8F%8B</t>
+  </si>
+  <si>
+    <t>网友</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%99%BE%E7%A7%91%E5%85%A8%E4%B9%A6</t>
+  </si>
+  <si>
+    <t>百科全书</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E7%AC%94</t>
+  </si>
+  <si>
+    <t>共笔</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%A1%E6%9F%A5</t>
+  </si>
+  <si>
+    <t>审查</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BC%96%E8%BE%91</t>
+  </si>
+  <si>
+    <t>编辑</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E6%96%87%E7%BB%B4%E5%9F%BA%E7%99%BE%E7%A7%91</t>
+  </si>
+  <si>
+    <t>中文维基百科</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E6%96%87%E7%BB%B4%E5%9F%BA%E7%99%BE%E7%A7%91</t>
+  </si>
+  <si>
+    <t>英文维基百科</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%90%9C%E7%8B%97%E7%99%BE%E7%A7%91</t>
+  </si>
+  <si>
+    <t>搜狗百科</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%85%BE%E8%AE%AF%E7%BD%91</t>
+  </si>
+  <si>
+    <t>腾讯网</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%92%E5%8A%A8%E7%99%BE%E7%A7%91</t>
+  </si>
+  <si>
+    <t>互动百科</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%99%BE%E5%BA%A6%E7%99%BE%E7%A7%91</t>
+  </si>
+  <si>
+    <t>百度百科</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%99%BE%E5%BA%A6</t>
+  </si>
+  <si>
+    <t>百度</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/360%E7%99%BE%E7%A7%91</t>
+  </si>
+  <si>
+    <t>360百科</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A5%87%E8%99%8E360</t>
+  </si>
+  <si>
+    <t>奇虎360</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%87%E8%A8%80%E6%96%87</t>
+  </si>
+  <si>
+    <t>文言文</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E4%BC%97%E7%99%BE%E7%A7%91</t>
+  </si>
+  <si>
+    <t>大众百科</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BD%91%E7%BB%9C%E5%A4%A9%E4%B9%A6</t>
+  </si>
+  <si>
+    <t>网络天书</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E5%BA%93</t>
+  </si>
+  <si>
+    <t>维库</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/MBA%E6%99%BA%E5%BA%93%E7%99%BE%E7%A7%91</t>
+  </si>
+  <si>
+    <t>MBA智库百科</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/Qwiki</t>
+  </si>
+  <si>
+    <t>Qwiki</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/Knol</t>
+  </si>
+  <si>
+    <t>Knol</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/Google</t>
+  </si>
+  <si>
+    <t>Google</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%91%97%E4%BD%9C%E6%AC%8A</t>
+  </si>
+  <si>
+    <t>着作权</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9C%83%E5%93%A1</t>
+  </si>
+  <si>
+    <t>会员</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E4%B8%8D%E5%88%97%E9%A2%A0%E7%99%BE%E7%A7%91%E5%85%A8%E4%B9%A6</t>
+  </si>
+  <si>
+    <t>大不列颠百科全书</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E5%A4%A7%E7%99%BE%E7%A7%91%E5%85%A8%E4%B9%A6</t>
+  </si>
+  <si>
+    <t>中国大百科全书</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E7%99%BE%E7%A7%91%E5%85%A8%E4%B9%A6</t>
+  </si>
+  <si>
+    <t>中华百科全书</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3%E5%A4%A7%E7%99%BE%E7%A7%91%E5%85%A8%E6%9B%B8</t>
+  </si>
+  <si>
+    <t>台湾大百科全书</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E7%B6%B2%E7%B5%A1%E5%A4%A7%E5%85%B8</t>
+  </si>
+  <si>
+    <t>香港网络大典</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%81%BD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
+  </si>
+  <si>
+    <t>伪基百科</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BD%91%E6%B0%91</t>
+  </si>
+  <si>
+    <t>网民</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%90%8C%E5%A8%98%E7%99%BE%E7%A7%91</t>
+  </si>
+  <si>
+    <t>萌娘百科</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/ACG</t>
+  </si>
+  <si>
+    <t>ACG</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%90%8C%E6%8B%9F%E4%BA%BA%E5%8C%96</t>
+  </si>
+  <si>
+    <t>萌拟人化</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%90%8C%E4%BA%BA</t>
+  </si>
+  <si>
+    <t>同人</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%99%BE%E7%A7%91%E5%85%A8%E8%AF%B4</t>
+  </si>
+  <si>
+    <t>百科全说</t>
+  </si>
+  <si>
+    <t>http://zh.pttpedia.wikia.com/wiki/PTT%E9%84%89%E6%B0%91%E7%99%BE%E7%A7%91</t>
+  </si>
+  <si>
+    <t>PTT乡民百科</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%A8%E7%BA%BF%E7%99%BE%E7%A7%91%E5%85%A8%E4%B9%A6%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>在线百科全书列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E7%99%BE%E7%A7%91%E5%85%A8%E6%9B%B8</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E6%96%87%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B1%89%E5%85%B8</t>
+  </si>
+  <si>
+    <t>汉典</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%AE%A2%E4%B8%AD%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>维客中国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B6%B2%E7%B5%A1%E5%A4%A9%E6%9B%B8</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/AcFun</t>
+  </si>
+  <si>
+    <t>AcFun</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%8B%B1%E7%99%BE%E7%A7%91%E5%85%A8%E4%B9%A6</t>
+  </si>
+  <si>
+    <t>大英百科全书</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%91%E7%BB%9C%E7%99%BE%E7%A7%91%E5%85%A8%E4%B9%A6</t>
   </si>
   <si>
-    <t>https://en.wikipedia.org/wiki/Internet_encyclopedia</t>
-  </si>
-  <si>
-    <t>en-Internet encyclopedia</t>
-  </si>
-  <si>
-    <t>政策_政策_維基百科_网络百科全书</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%92%E8%81%94%E7%BD%91</t>
-  </si>
-  <si>
-    <t>互联网</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B6%B2%E5%8F%8B</t>
-  </si>
-  <si>
-    <t>網友</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%99%BE%E7%A7%91%E5%85%A8%E4%B9%A6</t>
-  </si>
-  <si>
-    <t>百科全书</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E7%AC%94</t>
-  </si>
-  <si>
-    <t>共笔</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%A1%E6%9F%A5</t>
-  </si>
-  <si>
-    <t>审查</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BC%96%E8%BE%91</t>
-  </si>
-  <si>
-    <t>编辑</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E6%96%87%E7%BB%B4%E5%9F%BA%E7%99%BE%E7%A7%91</t>
-  </si>
-  <si>
-    <t>中文维基百科</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E6%96%87%E7%BB%B4%E5%9F%BA%E7%99%BE%E7%A7%91</t>
-  </si>
-  <si>
-    <t>英文维基百科</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%90%9C%E7%8B%97%E7%99%BE%E7%A7%91</t>
-  </si>
-  <si>
-    <t>搜狗百科</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%85%BE%E8%AE%AF%E7%BD%91</t>
-  </si>
-  <si>
-    <t>腾讯网</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%92%E5%8A%A8%E7%99%BE%E7%A7%91</t>
-  </si>
-  <si>
-    <t>互动百科</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%99%BE%E5%BA%A6%E7%99%BE%E7%A7%91</t>
-  </si>
-  <si>
-    <t>百度百科</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%99%BE%E5%BA%A6</t>
-  </si>
-  <si>
-    <t>百度</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/360%E7%99%BE%E7%A7%91</t>
-  </si>
-  <si>
-    <t>360百科</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A5%87%E8%99%8E360</t>
-  </si>
-  <si>
-    <t>奇虎360</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%87%E8%A8%80%E6%96%87</t>
-  </si>
-  <si>
-    <t>文言文</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E4%BC%97%E7%99%BE%E7%A7%91</t>
-  </si>
-  <si>
-    <t>大众百科</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BD%91%E7%BB%9C%E5%A4%A9%E4%B9%A6</t>
-  </si>
-  <si>
-    <t>网络天书</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E5%BA%93</t>
-  </si>
-  <si>
-    <t>维库</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/MBA%E6%99%BA%E5%BA%93%E7%99%BE%E7%A7%91</t>
-  </si>
-  <si>
-    <t>MBA智库百科</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Qwiki</t>
-  </si>
-  <si>
-    <t>Qwiki</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Knol</t>
-  </si>
-  <si>
-    <t>Knol</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Google</t>
-  </si>
-  <si>
-    <t>Google</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%91%97%E4%BD%9C%E6%AC%8A</t>
-  </si>
-  <si>
-    <t>著作權</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9C%83%E5%93%A1</t>
-  </si>
-  <si>
-    <t>會員</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E4%B8%8D%E5%88%97%E9%A2%A0%E7%99%BE%E7%A7%91%E5%85%A8%E4%B9%A6</t>
-  </si>
-  <si>
-    <t>大不列颠百科全书</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E5%A4%A7%E7%99%BE%E7%A7%91%E5%85%A8%E4%B9%A6</t>
-  </si>
-  <si>
-    <t>中国大百科全书</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E7%99%BE%E7%A7%91%E5%85%A8%E4%B9%A6</t>
-  </si>
-  <si>
-    <t>中华百科全书</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3%E5%A4%A7%E7%99%BE%E7%A7%91%E5%85%A8%E6%9B%B8</t>
-  </si>
-  <si>
-    <t>台灣大百科全書</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E7%B6%B2%E7%B5%A1%E5%A4%A7%E5%85%B8</t>
-  </si>
-  <si>
-    <t>香港網絡大典</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%81%BD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
-  </si>
-  <si>
-    <t>偽基百科</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BD%91%E6%B0%91</t>
-  </si>
-  <si>
-    <t>网民</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%90%8C%E5%A8%98%E7%99%BE%E7%A7%91</t>
-  </si>
-  <si>
-    <t>萌娘百科</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/ACG</t>
-  </si>
-  <si>
-    <t>ACG</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%90%8C%E6%8B%9F%E4%BA%BA%E5%8C%96</t>
-  </si>
-  <si>
-    <t>萌拟人化</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%90%8C%E4%BA%BA</t>
-  </si>
-  <si>
-    <t>同人</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%99%BE%E7%A7%91%E5%85%A8%E8%AF%B4</t>
-  </si>
-  <si>
-    <t>百科全说</t>
-  </si>
-  <si>
-    <t>http://zh.pttpedia.wikia.com/wiki/PTT%E9%84%89%E6%B0%91%E7%99%BE%E7%A7%91</t>
-  </si>
-  <si>
-    <t>PTT乡民百科</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%A8%E7%BA%BF%E7%99%BE%E7%A7%91%E5%85%A8%E4%B9%A6%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>在线百科全书列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E7%99%BE%E7%A7%91%E5%85%A8%E6%9B%B8</t>
-  </si>
-  <si>
-    <t>中華百科全書</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E6%96%87%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
-  </si>
-  <si>
-    <t>中文維基百科</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B1%89%E5%85%B8</t>
-  </si>
-  <si>
-    <t>汉典</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%AE%A2%E4%B8%AD%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>維客中國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B6%B2%E7%B5%A1%E5%A4%A9%E6%9B%B8</t>
-  </si>
-  <si>
-    <t>網絡天書</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/AcFun</t>
-  </si>
-  <si>
-    <t>AcFun</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%8B%B1%E7%99%BE%E7%A7%91%E5%85%A8%E4%B9%A6</t>
-  </si>
-  <si>
-    <t>大英百科全书</t>
+    <t>浏览条目正文[c]</t>
+  </si>
+  <si>
+    <t>阅读</t>
   </si>
 </sst>
 </file>
@@ -654,7 +654,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I51"/>
+  <dimension ref="A1:I53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1894,7 +1894,7 @@
         <v>83</v>
       </c>
       <c r="F43" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -1978,10 +1978,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F46" t="s">
-        <v>86</v>
+        <v>18</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -2007,10 +2007,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F47" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -2036,10 +2036,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F48" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -2065,10 +2065,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F49" t="s">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -2094,10 +2094,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F50" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -2123,18 +2123,76 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>92</v>
+      </c>
+      <c r="F51" t="s">
+        <v>93</v>
+      </c>
+      <c r="G51" t="n">
+        <v>1</v>
+      </c>
+      <c r="H51" t="s">
+        <v>4</v>
+      </c>
+      <c r="I51" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>0</v>
+      </c>
+      <c r="C52" t="s">
+        <v>1</v>
+      </c>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>94</v>
+      </c>
+      <c r="F52" t="s">
         <v>95</v>
       </c>
-      <c r="F51" t="s">
+      <c r="G52" t="n">
+        <v>8</v>
+      </c>
+      <c r="H52" t="s">
+        <v>4</v>
+      </c>
+      <c r="I52" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>0</v>
+      </c>
+      <c r="C53" t="s">
+        <v>1</v>
+      </c>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>94</v>
+      </c>
+      <c r="F53" t="s">
         <v>96</v>
       </c>
-      <c r="G51" t="n">
-        <v>1</v>
-      </c>
-      <c r="H51" t="s">
-        <v>4</v>
-      </c>
-      <c r="I51" t="n">
+      <c r="G53" t="n">
+        <v>1</v>
+      </c>
+      <c r="H53" t="s">
+        <v>4</v>
+      </c>
+      <c r="I53" t="n">
         <v>3</v>
       </c>
     </row>
